--- a/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
@@ -124,7 +124,7 @@
     <t xml:space="preserve">98765</t>
   </si>
   <si>
-    <t xml:space="preserve">Fax Addres</t>
+    <t xml:space="preserve">Fax </t>
   </si>
   <si>
     <t xml:space="preserve">Recipient</t>
@@ -431,7 +431,7 @@
         <v>8</v>
       </c>
       <c r="E13" s="2">
-        <v>43630.654861111114</v>
+        <v>43630.69965277778</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
@@ -82,7 +82,7 @@
     <t xml:space="preserve">9987288</t>
   </si>
   <si>
-    <t xml:space="preserve">26/04/2020 01:39:15</t>
+    <t xml:space="preserve">27/04/2020 13:04:16</t>
   </si>
 </sst>
 </file>

--- a/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Recipient.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">04/05/2020 15:12:47</t>
   </si>
   <si>
-    <t xml:space="preserve">TrialData</t>
+    <t xml:space="preserve">Recepient Updated</t>
   </si>
   <si>
     <t xml:space="preserve">Recipient</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">918279</t>
   </si>
   <si>
-    <t xml:space="preserve">04/05/2020 17:05:45</t>
+    <t xml:space="preserve">08/05/2020 15:36:23</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
   </sheetViews>
   <sheetFormatPr x14ac:dyDescent="0.25" customHeight="1" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="10.714285714285714" bestFit="1"/>
+    <col min="1" max="1" customWidth="1" width="17.714285714285715" bestFit="1"/>
     <col min="2" max="2" customWidth="1" width="9.714285714285714" bestFit="1"/>
     <col min="3" max="3" customWidth="1" width="10.714285714285714" bestFit="1"/>
     <col min="4" max="4" customWidth="1" width="24.714285714285715" bestFit="1"/>
